--- a/참조/CSS 속성참조.xlsx
+++ b/참조/CSS 속성참조.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22788" windowHeight="8256" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="8232" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet2" sheetId="1" r:id="rId4"/>
@@ -25,11 +25,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="822">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="829">
   <x:si>
     <x:t>column-gap 속성은 다중 열 레이아웃에서 인접한 열 사이의 간격을 설정합니다.</x:t>
   </x:si>
   <x:si>
+    <x:t>counter-set 속성은 카운터를 주어진 값으로 설정합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>clip 속성은 보이는 부분을 설정합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>caret-color 속서은 텍스트 입력 커서 색상을 설정합니다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>css: mask-origin</x:t>
   </x:si>
   <x:si>
@@ -150,7 +159,7 @@
     <x:t>css: :disabled</x:t>
   </x:si>
   <x:si>
-    <x:t>clear 속성은 float와 직접 관련이 있으며 해당 요소의 양쪽 또는 양쪽에서 float를 지웁니다.</x:t>
+    <x:t>columns 속성은 지정된 내용을 열 수와 해당 열의 너비를 설정하는 약식 속성입니다.</x:t>
   </x:si>
   <x:si>
     <x:t>animation-iteration-count 속성은 애니메이션이 반복 횟수를 설정합니다.</x:t>
@@ -165,12 +174,6 @@
     <x:t>align-items 속성은 모든 직계 자식의 align-self 값을 그룹으로 설정합니다.</x:t>
   </x:si>
   <x:si>
-    <x:t>clip-path 속성은 기본 모양을 지정하거나 클리핑 경로를 참조하는 데 사용됩니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>clip 속성은 요소의 일부만 표시되도록 유지하면서 요소의 영역을 잘라내는 데 사용됩니다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>column-rule 속성은 다중 열 레이아웃에서 인접한 열 사이의 규칙을 설정합니다.</x:t>
   </x:si>
   <x:si>
@@ -846,9 +849,6 @@
     <x:t>border-block-width 속성은 테두리의 위아래 두께을 설정합니다.</x:t>
   </x:si>
   <x:si>
-    <x:t>columns 속성을 사용하면 요소의 내용을 여러 열에 배치할 수 있습니다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>border-spacing 속성은 테이블의 셀 사이의 거리를 설정합니다.</x:t>
   </x:si>
   <x:si>
@@ -1029,6 +1029,9 @@
     <x:t>css: mask-size</x:t>
   </x:si>
   <x:si>
+    <x:t>cursor 속성은 마우스 커서의 유형을 설정합니다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>css:&lt;display-internal&gt;</x:t>
   </x:si>
   <x:si>
@@ -2481,16 +2484,34 @@
     <x:t>column-span 속성은 다중 열 레이아웃이 모든 열에 걸쳐 있어야 하는지 여부를 설정합니다.</x:t>
   </x:si>
   <x:si>
-    <x:t>column-width 속성을 열 너비 값을 지정하여 콘텐츠를 여러 열에 배치할 수 있습니다.</x:t>
-  </x:si>
-  <x:si>
     <x:t>?</x:t>
   </x:si>
   <x:si>
-    <x:t>column-count 속성은 다중 열 레이아웃에서 배치를 설정합니다.</x:t>
+    <x:t>content 속성은 생성한 값으로 요소를 대체할 때 사용합니다.</x:t>
   </x:si>
   <x:si>
     <x:t>column-rule-width 속성은 다중 열 레이아웃에서 인접한 열 사이 규칙의 두께을 설정합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>clear 속성은 선행하는 부동 요소 아래로 이동되어야 하는지 여부를 설정합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>counter-reset 속성은 하나 이상의 카운터를 정의하고 초기화하는 데 사용됩니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>contain 속성은 특정 요소가 다른 부위와 독립되어있음을 설정합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>column-count 속성은 지정된 내용을 지정된 열 수로 설정합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>column-width 속성을 지정된 내용을 지정된 열 넓이를 설정합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>clip-path 속성은 표시되어야 하는 부분의 클리핑 영역을 설정합니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>counter-increment 속성은 하나 이상의 카운터에 대한 증가 값을 지정하는 데 사용됩니다.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3311,8 +3332,8 @@
   <x:sheetPr codeName="Sheet2" filterMode="1"/>
   <x:dimension ref="A1:C472"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A94" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="C106" activeCellId="0" sqref="C106:C106"/>
+    <x:sheetView tabSelected="1" topLeftCell="A115" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="A119" activeCellId="0" sqref="A118:A119"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -3324,47 +3345,47 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="4" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B1" s="6" t="s">
         <x:v>94</x:v>
-      </x:c>
-      <x:c r="B1" s="6" t="s">
-        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
       <x:c r="A2" s="7" t="s">
-        <x:v>377</x:v>
+        <x:v>378</x:v>
       </x:c>
       <x:c r="B2" s="6" t="s">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
       <x:c r="A3" s="7" t="s">
-        <x:v>812</x:v>
+        <x:v>813</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>484</x:v>
+        <x:v>485</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
       <x:c r="A4" s="7" t="s">
-        <x:v>717</x:v>
+        <x:v>718</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
       <x:c r="A5" s="7" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
       <x:c r="A6" s="7" t="s">
-        <x:v>373</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
         <x:v>296</x:v>
@@ -3372,7 +3393,7 @@
     </x:row>
     <x:row r="7" spans="1:2">
       <x:c r="A7" s="7" t="s">
-        <x:v>659</x:v>
+        <x:v>660</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
         <x:v>286</x:v>
@@ -3388,7 +3409,7 @@
     </x:row>
     <x:row r="9" spans="1:2">
       <x:c r="A9" s="7" t="s">
-        <x:v>357</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
         <x:v>275</x:v>
@@ -3396,40 +3417,40 @@
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="7" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
-        <x:v>477</x:v>
+        <x:v>478</x:v>
       </x:c>
       <x:c r="C10" s="6"/>
     </x:row>
     <x:row r="11" spans="1:2">
       <x:c r="A11" s="7" t="s">
-        <x:v>601</x:v>
+        <x:v>602</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="A12" s="7" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="B12" s="5" t="s">
-        <x:v>476</x:v>
+        <x:v>477</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="A13" s="7" t="s">
-        <x:v>795</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="B13" s="5" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:2">
       <x:c r="A14" s="7" t="s">
-        <x:v>706</x:v>
+        <x:v>707</x:v>
       </x:c>
       <x:c r="B14" s="5" t="s">
         <x:v>291</x:v>
@@ -3437,31 +3458,31 @@
     </x:row>
     <x:row r="15" spans="1:2">
       <x:c r="A15" s="7" t="s">
-        <x:v>110</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B15" s="5" t="s">
-        <x:v>197</x:v>
+        <x:v>198</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:2">
       <x:c r="A16" s="7" t="s">
-        <x:v>780</x:v>
+        <x:v>781</x:v>
       </x:c>
       <x:c r="B16" s="6" t="s">
-        <x:v>202</x:v>
+        <x:v>203</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:2">
       <x:c r="A17" s="7" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B17" s="6" t="s">
-        <x:v>740</x:v>
+        <x:v>741</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:2" s="2" customFormat="1">
       <x:c r="A18" s="7" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B18" s="5" t="s">
         <x:v>300</x:v>
@@ -3469,39 +3490,39 @@
     </x:row>
     <x:row r="19" spans="1:2">
       <x:c r="A19" s="7" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B19" s="5" t="s">
-        <x:v>482</x:v>
+        <x:v>483</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:2">
       <x:c r="A20" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B20" s="6" t="s">
-        <x:v>733</x:v>
+        <x:v>734</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:2">
       <x:c r="A21" s="7" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="B21" s="6" t="s">
-        <x:v>485</x:v>
+        <x:v>486</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:2">
       <x:c r="A22" s="7" t="s">
-        <x:v>470</x:v>
+        <x:v>471</x:v>
       </x:c>
       <x:c r="B22" s="6" t="s">
-        <x:v>200</x:v>
+        <x:v>201</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:2">
       <x:c r="A23" s="7" t="s">
-        <x:v>392</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="B23" s="6" t="s">
         <x:v>279</x:v>
@@ -3509,23 +3530,23 @@
     </x:row>
     <x:row r="24" spans="1:2">
       <x:c r="A24" s="7" t="s">
-        <x:v>752</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="B24" s="6" t="s">
-        <x:v>737</x:v>
+        <x:v>738</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:2">
       <x:c r="A25" s="7" t="s">
-        <x:v>397</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="B25" s="6" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:2">
       <x:c r="A26" s="7" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B26" s="6" t="s">
         <x:v>301</x:v>
@@ -3533,7 +3554,7 @@
     </x:row>
     <x:row r="27" spans="1:2">
       <x:c r="A27" s="7" t="s">
-        <x:v>459</x:v>
+        <x:v>460</x:v>
       </x:c>
       <x:c r="B27" s="6" t="s">
         <x:v>282</x:v>
@@ -3541,58 +3562,58 @@
     </x:row>
     <x:row r="28" spans="1:2">
       <x:c r="A28" s="7" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B28" s="6" t="s">
-        <x:v>480</x:v>
+        <x:v>481</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:2">
       <x:c r="A29" s="7" t="s">
-        <x:v>475</x:v>
+        <x:v>476</x:v>
       </x:c>
       <x:c r="B29" s="6" t="s">
-        <x:v>481</x:v>
+        <x:v>482</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:2">
       <x:c r="A30" s="7" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="B30" s="6" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:2">
       <x:c r="A31" s="7" t="s">
-        <x:v>364</x:v>
+        <x:v>365</x:v>
       </x:c>
       <x:c r="B31" s="6" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:2">
       <x:c r="A32" s="7" t="s">
-        <x:v>614</x:v>
+        <x:v>615</x:v>
       </x:c>
       <x:c r="B32" s="6" t="s">
-        <x:v>791</x:v>
+        <x:v>792</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:2">
       <x:c r="A33" s="7" t="s">
-        <x:v>493</x:v>
+        <x:v>494</x:v>
       </x:c>
       <x:c r="B33" s="6" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:2">
       <x:c r="A34" s="7" t="s">
-        <x:v>602</x:v>
+        <x:v>603</x:v>
       </x:c>
       <x:c r="B34" s="6" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:2">
@@ -3600,84 +3621,84 @@
         <x:v>303</x:v>
       </x:c>
       <x:c r="B35" s="6" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:2">
       <x:c r="A36" s="7" t="s">
-        <x:v>109</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B36" s="6" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:2">
       <x:c r="A37" s="7" t="s">
-        <x:v>468</x:v>
+        <x:v>469</x:v>
       </x:c>
       <x:c r="B37" s="6" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:2">
       <x:c r="A38" s="7" t="s">
-        <x:v>462</x:v>
+        <x:v>463</x:v>
       </x:c>
       <x:c r="B38" s="6" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:2">
       <x:c r="A39" s="7" t="s">
-        <x:v>747</x:v>
+        <x:v>748</x:v>
       </x:c>
       <x:c r="B39" s="6" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:2">
       <x:c r="A40" s="7" t="s">
-        <x:v>784</x:v>
+        <x:v>785</x:v>
       </x:c>
       <x:c r="B40" s="6" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:2">
       <x:c r="A41" s="7" t="s">
-        <x:v>789</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="B41" s="6" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:2">
       <x:c r="A42" s="7" t="s">
-        <x:v>781</x:v>
+        <x:v>782</x:v>
       </x:c>
       <x:c r="B42" s="6" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:2">
       <x:c r="A43" s="7" t="s">
-        <x:v>196</x:v>
+        <x:v>197</x:v>
       </x:c>
       <x:c r="B43" s="6" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:2">
       <x:c r="A44" s="7" t="s">
-        <x:v>402</x:v>
+        <x:v>403</x:v>
       </x:c>
       <x:c r="B44" s="6" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:2">
       <x:c r="A45" s="7" t="s">
-        <x:v>708</x:v>
+        <x:v>709</x:v>
       </x:c>
       <x:c r="B45" s="6" t="s">
         <x:v>298</x:v>
@@ -3685,7 +3706,7 @@
     </x:row>
     <x:row r="46" spans="1:2">
       <x:c r="A46" s="7" t="s">
-        <x:v>235</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="B46" s="6" t="s">
         <x:v>289</x:v>
@@ -3693,31 +3714,31 @@
     </x:row>
     <x:row r="47" spans="1:2">
       <x:c r="A47" s="7" t="s">
-        <x:v>790</x:v>
+        <x:v>791</x:v>
       </x:c>
       <x:c r="B47" s="6" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:2">
       <x:c r="A48" s="7" t="s">
-        <x:v>792</x:v>
+        <x:v>793</x:v>
       </x:c>
       <x:c r="B48" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:2">
       <x:c r="A49" s="7" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="B49" s="6" t="s">
-        <x:v>199</x:v>
+        <x:v>200</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:2">
       <x:c r="A50" s="7" t="s">
-        <x:v>463</x:v>
+        <x:v>464</x:v>
       </x:c>
       <x:c r="B50" s="6" t="s">
         <x:v>277</x:v>
@@ -3725,39 +3746,39 @@
     </x:row>
     <x:row r="51" spans="1:2">
       <x:c r="A51" s="7" t="s">
-        <x:v>573</x:v>
+        <x:v>574</x:v>
       </x:c>
       <x:c r="B51" s="6" t="s">
-        <x:v>483</x:v>
+        <x:v>484</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:2">
       <x:c r="A52" s="7" t="s">
-        <x:v>520</x:v>
+        <x:v>521</x:v>
       </x:c>
       <x:c r="B52" s="6" t="s">
-        <x:v>728</x:v>
+        <x:v>729</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:2">
       <x:c r="A53" s="7" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B53" s="6" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:2">
       <x:c r="A54" s="7" t="s">
-        <x:v>785</x:v>
+        <x:v>786</x:v>
       </x:c>
       <x:c r="B54" s="6" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:2">
       <x:c r="A55" s="7" t="s">
-        <x:v>345</x:v>
+        <x:v>346</x:v>
       </x:c>
       <x:c r="B55" s="6" t="s">
         <x:v>284</x:v>
@@ -3765,39 +3786,39 @@
     </x:row>
     <x:row r="56" spans="1:2">
       <x:c r="A56" s="7" t="s">
-        <x:v>114</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B56" s="6" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:2">
       <x:c r="A57" s="7" t="s">
-        <x:v>464</x:v>
+        <x:v>465</x:v>
       </x:c>
       <x:c r="B57" s="6" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:2">
       <x:c r="A58" s="7" t="s">
-        <x:v>589</x:v>
+        <x:v>590</x:v>
       </x:c>
       <x:c r="B58" s="6" t="s">
-        <x:v>407</x:v>
+        <x:v>408</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:2">
       <x:c r="A59" s="7" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B59" s="6" t="s">
-        <x:v>478</x:v>
+        <x:v>479</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:2">
       <x:c r="A60" s="7" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B60" s="6" t="s">
         <x:v>292</x:v>
@@ -3805,7 +3826,7 @@
     </x:row>
     <x:row r="61" spans="1:2">
       <x:c r="A61" s="7" t="s">
-        <x:v>517</x:v>
+        <x:v>518</x:v>
       </x:c>
       <x:c r="B61" s="6" t="s">
         <x:v>290</x:v>
@@ -3813,7 +3834,7 @@
     </x:row>
     <x:row r="62" spans="1:2">
       <x:c r="A62" s="7" t="s">
-        <x:v>466</x:v>
+        <x:v>467</x:v>
       </x:c>
       <x:c r="B62" s="6" t="s">
         <x:v>299</x:v>
@@ -3821,79 +3842,79 @@
     </x:row>
     <x:row r="63" spans="1:2">
       <x:c r="A63" s="7" t="s">
-        <x:v>192</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="B63" s="6" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:2">
       <x:c r="A64" s="7" t="s">
-        <x:v>806</x:v>
+        <x:v>807</x:v>
       </x:c>
       <x:c r="B64" s="6" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:2">
       <x:c r="A65" s="7" t="s">
-        <x:v>805</x:v>
+        <x:v>806</x:v>
       </x:c>
       <x:c r="B65" s="6" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:2">
       <x:c r="A66" s="7" t="s">
-        <x:v>788</x:v>
+        <x:v>789</x:v>
       </x:c>
       <x:c r="B66" s="6" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:2">
       <x:c r="A67" s="7" t="s">
-        <x:v>230</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="B67" s="6" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:2">
       <x:c r="A68" s="7" t="s">
-        <x:v>776</x:v>
+        <x:v>777</x:v>
       </x:c>
       <x:c r="B68" s="6" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:2">
       <x:c r="A69" s="7" t="s">
-        <x:v>778</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="B69" s="6" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:2">
       <x:c r="A70" s="7" t="s">
-        <x:v>774</x:v>
+        <x:v>775</x:v>
       </x:c>
       <x:c r="B70" s="6" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:2">
       <x:c r="A71" s="7" t="s">
-        <x:v>212</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B71" s="6" t="s">
-        <x:v>201</x:v>
+        <x:v>202</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:2">
       <x:c r="A72" s="7" t="s">
-        <x:v>107</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="B72" s="6" t="s">
         <x:v>297</x:v>
@@ -3901,15 +3922,15 @@
     </x:row>
     <x:row r="73" spans="1:2">
       <x:c r="A73" s="7" t="s">
-        <x:v>346</x:v>
+        <x:v>347</x:v>
       </x:c>
       <x:c r="B73" s="6" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:2">
       <x:c r="A74" s="7" t="s">
-        <x:v>599</x:v>
+        <x:v>600</x:v>
       </x:c>
       <x:c r="B74" s="6" t="s">
         <x:v>278</x:v>
@@ -3917,7 +3938,7 @@
     </x:row>
     <x:row r="75" spans="1:2">
       <x:c r="A75" s="7" t="s">
-        <x:v>579</x:v>
+        <x:v>580</x:v>
       </x:c>
       <x:c r="B75" s="6" t="s">
         <x:v>293</x:v>
@@ -3925,23 +3946,23 @@
     </x:row>
     <x:row r="76" spans="1:2">
       <x:c r="A76" s="7" t="s">
-        <x:v>742</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="B76" s="6" t="s">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:2">
       <x:c r="A77" s="7" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B77" s="6" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:2">
       <x:c r="A78" s="7" t="s">
-        <x:v>705</x:v>
+        <x:v>706</x:v>
       </x:c>
       <x:c r="B78" s="6" t="s">
         <x:v>283</x:v>
@@ -3949,7 +3970,7 @@
     </x:row>
     <x:row r="79" spans="1:2">
       <x:c r="A79" s="7" t="s">
-        <x:v>581</x:v>
+        <x:v>582</x:v>
       </x:c>
       <x:c r="B79" s="6" t="s">
         <x:v>281</x:v>
@@ -3957,15 +3978,15 @@
     </x:row>
     <x:row r="80" spans="1:2">
       <x:c r="A80" s="7" t="s">
-        <x:v>576</x:v>
+        <x:v>577</x:v>
       </x:c>
       <x:c r="B80" s="6" t="s">
-        <x:v>479</x:v>
+        <x:v>480</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:2">
       <x:c r="A81" s="7" t="s">
-        <x:v>361</x:v>
+        <x:v>362</x:v>
       </x:c>
       <x:c r="B81" s="6" t="s">
         <x:v>285</x:v>
@@ -3973,7 +3994,7 @@
     </x:row>
     <x:row r="82" spans="1:2">
       <x:c r="A82" s="7" t="s">
-        <x:v>376</x:v>
+        <x:v>377</x:v>
       </x:c>
       <x:c r="B82" s="6" t="s">
         <x:v>274</x:v>
@@ -3981,58 +4002,58 @@
     </x:row>
     <x:row r="83" spans="1:2">
       <x:c r="A83" s="7" t="s">
-        <x:v>761</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="B83" s="6" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:2">
       <x:c r="A84" s="7" t="s">
-        <x:v>769</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="B84" s="6" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:2">
       <x:c r="A85" s="7" t="s">
-        <x:v>688</x:v>
+        <x:v>689</x:v>
       </x:c>
       <x:c r="B85" s="6" t="s">
-        <x:v>731</x:v>
+        <x:v>732</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:2">
       <x:c r="A86" s="7" t="s">
-        <x:v>453</x:v>
+        <x:v>454</x:v>
       </x:c>
       <x:c r="B86" s="6" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:2">
       <x:c r="A87" s="7" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="B87" s="6" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:2">
       <x:c r="A88" s="7" t="s">
-        <x:v>465</x:v>
+        <x:v>466</x:v>
       </x:c>
       <x:c r="B88" s="6" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:2">
       <x:c r="A89" s="7" t="s">
-        <x:v>794</x:v>
+        <x:v>795</x:v>
       </x:c>
       <x:c r="B89" s="6" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:2">
@@ -4045,23 +4066,23 @@
     </x:row>
     <x:row r="91" spans="1:2">
       <x:c r="A91" s="7" t="s">
-        <x:v>605</x:v>
+        <x:v>606</x:v>
       </x:c>
       <x:c r="B91" s="6" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:2">
       <x:c r="A92" s="7" t="s">
-        <x:v>5</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B92" s="6" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:2">
       <x:c r="A93" s="7" t="s">
-        <x:v>643</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="B93" s="6" t="s">
         <x:v>287</x:v>
@@ -4069,252 +4090,255 @@
     </x:row>
     <x:row r="94" spans="1:2">
       <x:c r="A94" s="7" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="B94" s="6" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:2">
       <x:c r="A95" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B95" s="6" t="s">
-        <x:v>233</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:2">
       <x:c r="A96" s="7" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B96" s="6" t="s">
-        <x:v>738</x:v>
+        <x:v>739</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:2">
       <x:c r="A97" s="7" t="s">
-        <x:v>724</x:v>
+        <x:v>725</x:v>
       </x:c>
       <x:c r="B97" s="6" t="s">
-        <x:v>735</x:v>
+        <x:v>736</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:2">
       <x:c r="A98" s="7" t="s">
-        <x:v>381</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="B98" s="6" t="s">
-        <x:v>739</x:v>
+        <x:v>740</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:2">
       <x:c r="A99" s="7" t="s">
-        <x:v>687</x:v>
+        <x:v>688</x:v>
       </x:c>
       <x:c r="B99" s="6" t="s">
-        <x:v>787</x:v>
+        <x:v>788</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:2">
       <x:c r="A100" s="7" t="s">
-        <x:v>183</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B100" s="6" t="s">
-        <x:v>129</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="101" spans="1:3" s="2" customFormat="1">
-      <x:c r="A101" s="5" t="s">
-        <x:v>698</x:v>
-      </x:c>
-      <x:c r="C101" s="2" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:2" s="2" customFormat="1">
+      <x:c r="A101" s="7" t="s">
+        <x:v>699</x:v>
+      </x:c>
+      <x:c r="B101" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:2">
+      <x:c r="A102" s="7" t="s">
+        <x:v>624</x:v>
+      </x:c>
+      <x:c r="B102" s="6" t="s">
+        <x:v>822</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:2">
+      <x:c r="A103" s="7" t="s">
+        <x:v>632</x:v>
+      </x:c>
+      <x:c r="B103" s="6" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:2">
+      <x:c r="A104" s="7" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="B104" s="6" t="s">
+        <x:v>827</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:2">
+      <x:c r="A105" s="7" t="s">
+        <x:v>619</x:v>
+      </x:c>
+      <x:c r="B105" s="6" t="s">
+        <x:v>217</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:2">
+      <x:c r="A106" s="5" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="B106" s="6" t="s">
         <x:v>819</x:v>
       </x:c>
     </x:row>
-    <x:row r="102" spans="1:3">
-      <x:c r="A102" s="5" t="s">
-        <x:v>623</x:v>
-      </x:c>
-      <x:c r="B102" s="6" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C102" s="2" t="s">
+    <x:row r="107" spans="1:2">
+      <x:c r="A107" s="5" t="s">
+        <x:v>703</x:v>
+      </x:c>
+      <x:c r="B107" s="6" t="s">
         <x:v>819</x:v>
       </x:c>
     </x:row>
-    <x:row r="103" spans="1:3">
-      <x:c r="A103" s="5" t="s">
-        <x:v>631</x:v>
-      </x:c>
-      <x:c r="B103" s="6" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C103" s="2" t="s">
-        <x:v>819</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="104" spans="1:3">
-      <x:c r="A104" s="5" t="s">
-        <x:v>304</x:v>
-      </x:c>
-      <x:c r="B104" s="6" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C104" s="2" t="s">
-        <x:v>819</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="105" spans="1:2">
-      <x:c r="A105" s="5" t="s">
-        <x:v>618</x:v>
-      </x:c>
-      <x:c r="B105" s="6" t="s">
-        <x:v>216</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="106" spans="1:3">
-      <x:c r="A106" s="5" t="s">
-        <x:v>380</x:v>
-      </x:c>
-      <x:c r="C106" s="2" t="s">
-        <x:v>819</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="107" spans="1:3">
-      <x:c r="A107" s="5" t="s">
-        <x:v>702</x:v>
-      </x:c>
-      <x:c r="C107" s="2" t="s">
-        <x:v>819</x:v>
-      </x:c>
-    </x:row>
     <x:row r="108" spans="1:2">
-      <x:c r="A108" s="5" t="s">
-        <x:v>340</x:v>
+      <x:c r="A108" s="7" t="s">
+        <x:v>341</x:v>
       </x:c>
       <x:c r="B108" s="6" t="s">
-        <x:v>820</x:v>
+        <x:v>825</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:2">
-      <x:c r="A109" s="5" t="s">
-        <x:v>383</x:v>
+      <x:c r="A109" s="7" t="s">
+        <x:v>384</x:v>
       </x:c>
       <x:c r="B109" s="6" t="s">
-        <x:v>221</x:v>
+        <x:v>222</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:2">
-      <x:c r="A110" s="5" t="s">
-        <x:v>425</x:v>
+      <x:c r="A110" s="7" t="s">
+        <x:v>426</x:v>
       </x:c>
       <x:c r="B110" s="6" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:2">
-      <x:c r="A111" s="5" t="s">
-        <x:v>344</x:v>
+      <x:c r="A111" s="7" t="s">
+        <x:v>345</x:v>
       </x:c>
       <x:c r="B111" s="6" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:2">
-      <x:c r="A112" s="5" t="s">
-        <x:v>403</x:v>
+      <x:c r="A112" s="7" t="s">
+        <x:v>404</x:v>
       </x:c>
       <x:c r="B112" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:2">
-      <x:c r="A113" s="5" t="s">
-        <x:v>241</x:v>
+      <x:c r="A113" s="7" t="s">
+        <x:v>242</x:v>
       </x:c>
       <x:c r="B113" s="6" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:2">
-      <x:c r="A114" s="5" t="s">
-        <x:v>395</x:v>
+      <x:c r="A114" s="7" t="s">
+        <x:v>396</x:v>
       </x:c>
       <x:c r="B114" s="6" t="s">
         <x:v>821</x:v>
       </x:c>
     </x:row>
-    <x:row r="115" spans="1:3">
-      <x:c r="A115" s="5" t="s">
-        <x:v>549</x:v>
+    <x:row r="115" spans="1:2">
+      <x:c r="A115" s="7" t="s">
+        <x:v>550</x:v>
       </x:c>
       <x:c r="B115" s="6" t="s">
-        <x:v>273</x:v>
-      </x:c>
-      <x:c r="C115" s="2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:2">
+      <x:c r="A116" s="7" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="B116" s="6" t="s">
+        <x:v>818</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:2">
+      <x:c r="A117" s="7" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B117" s="6" t="s">
+        <x:v>826</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:2">
+      <x:c r="A118" s="7" t="s">
+        <x:v>556</x:v>
+      </x:c>
+      <x:c r="B118" s="6" t="s">
+        <x:v>824</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:2">
+      <x:c r="A119" s="7" t="s">
+        <x:v>568</x:v>
+      </x:c>
+      <x:c r="B119" s="6" t="s">
+        <x:v>820</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:2">
+      <x:c r="A120" s="5" t="s">
+        <x:v>195</x:v>
+      </x:c>
+      <x:c r="B120" s="6" t="s">
         <x:v>819</x:v>
       </x:c>
     </x:row>
-    <x:row r="116" spans="1:3">
-      <x:c r="A116" s="5" t="s">
-        <x:v>378</x:v>
-      </x:c>
-      <x:c r="B116" s="6" t="s">
-        <x:v>817</x:v>
-      </x:c>
-      <x:c r="C116" s="2" t="s">
-        <x:v>819</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="117" spans="1:3">
-      <x:c r="A117" s="5" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="B117" s="6" t="s">
-        <x:v>818</x:v>
-      </x:c>
-      <x:c r="C117" s="2" t="s">
-        <x:v>819</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="118" spans="1:1">
-      <x:c r="A118" s="5" t="s">
-        <x:v>555</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="119" spans="1:1">
-      <x:c r="A119" s="5" t="s">
-        <x:v>567</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="120" spans="1:1">
-      <x:c r="A120" s="5" t="s">
-        <x:v>194</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="121" spans="1:1">
-      <x:c r="A121" s="5" t="s">
-        <x:v>255</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="122" spans="1:1">
-      <x:c r="A122" s="5" t="s">
-        <x:v>725</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="123" spans="1:1">
-      <x:c r="A123" s="5" t="s">
-        <x:v>374</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="124" spans="1:1">
-      <x:c r="A124" s="5" t="s">
-        <x:v>624</x:v>
+    <x:row r="121" spans="1:2">
+      <x:c r="A121" s="7" t="s">
+        <x:v>256</x:v>
+      </x:c>
+      <x:c r="B121" s="6" t="s">
+        <x:v>828</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:2">
+      <x:c r="A122" s="7" t="s">
+        <x:v>726</x:v>
+      </x:c>
+      <x:c r="B122" s="6" t="s">
+        <x:v>823</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:2">
+      <x:c r="A123" s="7" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="B123" s="6" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:2">
+      <x:c r="A124" s="7" t="s">
+        <x:v>625</x:v>
+      </x:c>
+      <x:c r="B124" s="6" t="s">
+        <x:v>334</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:1">
       <x:c r="A125" s="5" t="s">
-        <x:v>532</x:v>
+        <x:v>533</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:1">
@@ -4324,100 +4348,100 @@
     </x:row>
     <x:row r="127" spans="1:2" s="2" customFormat="1">
       <x:c r="A127" s="5" t="s">
-        <x:v>814</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="B127" s="6"/>
     </x:row>
     <x:row r="128" spans="1:1">
       <x:c r="A128" s="5" t="s">
-        <x:v>608</x:v>
+        <x:v>609</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:1">
       <x:c r="A129" s="5" t="s">
-        <x:v>646</x:v>
+        <x:v>647</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:2" s="2" customFormat="1">
       <x:c r="A130" s="5" t="s">
-        <x:v>540</x:v>
+        <x:v>541</x:v>
       </x:c>
       <x:c r="B130" s="6"/>
     </x:row>
     <x:row r="131" spans="1:1">
       <x:c r="A131" s="5" t="s">
-        <x:v>816</x:v>
+        <x:v>817</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:2" s="2" customFormat="1">
       <x:c r="A132" s="5" t="s">
-        <x:v>450</x:v>
+        <x:v>451</x:v>
       </x:c>
       <x:c r="B132" s="6"/>
     </x:row>
     <x:row r="133" spans="1:1">
       <x:c r="A133" s="5" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:1">
       <x:c r="A134" s="5" t="s">
-        <x:v>512</x:v>
+        <x:v>513</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:1">
       <x:c r="A135" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:1">
       <x:c r="A136" s="5" t="s">
-        <x:v>611</x:v>
+        <x:v>612</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:1">
       <x:c r="A137" s="5" t="s">
-        <x:v>660</x:v>
+        <x:v>661</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:1">
       <x:c r="A138" s="5" t="s">
-        <x:v>522</x:v>
+        <x:v>523</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:1">
       <x:c r="A139" s="5" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:1">
       <x:c r="A140" s="5" t="s">
-        <x:v>487</x:v>
+        <x:v>488</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:1">
       <x:c r="A141" s="5" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:1">
       <x:c r="A142" s="5" t="s">
-        <x:v>210</x:v>
+        <x:v>211</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:1">
       <x:c r="A143" s="5" t="s">
-        <x:v>445</x:v>
+        <x:v>446</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:1">
       <x:c r="A144" s="5" t="s">
-        <x:v>369</x:v>
+        <x:v>370</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:1">
       <x:c r="A145" s="5" t="s">
-        <x:v>384</x:v>
+        <x:v>385</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:1">
@@ -4427,173 +4451,173 @@
     </x:row>
     <x:row r="147" spans="1:1">
       <x:c r="A147" s="5" t="s">
-        <x:v>501</x:v>
+        <x:v>502</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:1">
       <x:c r="A148" s="5" t="s">
-        <x:v>526</x:v>
+        <x:v>527</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:1">
       <x:c r="A149" s="5" t="s">
-        <x:v>759</x:v>
+        <x:v>760</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:1">
       <x:c r="A150" s="5" t="s">
-        <x:v>587</x:v>
+        <x:v>588</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:1">
       <x:c r="A151" s="5" t="s">
-        <x:v>768</x:v>
+        <x:v>769</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:1">
       <x:c r="A152" s="5" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:1">
       <x:c r="A153" s="5" t="s">
-        <x:v>115</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:1">
       <x:c r="A154" s="5" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:1">
       <x:c r="A155" s="5" t="s">
-        <x:v>771</x:v>
+        <x:v>772</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:1">
       <x:c r="A156" s="5" t="s">
-        <x:v>491</x:v>
+        <x:v>492</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:1">
       <x:c r="A157" s="5" t="s">
-        <x:v>112</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:1">
       <x:c r="A158" s="5" t="s">
-        <x:v>644</x:v>
+        <x:v>645</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:1">
       <x:c r="A159" s="5" t="s">
-        <x:v>629</x:v>
+        <x:v>630</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:1">
       <x:c r="A160" s="5" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:1">
       <x:c r="A161" s="5" t="s">
-        <x:v>575</x:v>
+        <x:v>576</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:1">
       <x:c r="A162" s="5" t="s">
-        <x:v>523</x:v>
+        <x:v>524</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:2" s="2" customFormat="1">
       <x:c r="A163" s="5" t="s">
-        <x:v>388</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="B163" s="6"/>
     </x:row>
     <x:row r="164" spans="1:1">
       <x:c r="A164" s="5" t="s">
-        <x:v>496</x:v>
+        <x:v>497</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:1">
       <x:c r="A165" s="5" t="s">
-        <x:v>585</x:v>
+        <x:v>586</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:1">
       <x:c r="A166" s="5" t="s">
-        <x:v>597</x:v>
+        <x:v>598</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:1">
       <x:c r="A167" s="5" t="s">
-        <x:v>458</x:v>
+        <x:v>459</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:1">
       <x:c r="A168" s="5" t="s">
-        <x:v>498</x:v>
+        <x:v>499</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:1">
       <x:c r="A169" s="5" t="s">
-        <x:v>693</x:v>
+        <x:v>694</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:1">
       <x:c r="A170" s="5" t="s">
-        <x:v>495</x:v>
+        <x:v>496</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:1">
       <x:c r="A171" s="5" t="s">
-        <x:v>460</x:v>
+        <x:v>461</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:1">
       <x:c r="A172" s="5" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:1">
       <x:c r="A173" s="5" t="s">
-        <x:v>593</x:v>
+        <x:v>594</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:1">
       <x:c r="A174" s="5" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:1">
       <x:c r="A175" s="5" t="s">
-        <x:v>632</x:v>
+        <x:v>633</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:1">
       <x:c r="A176" s="5" t="s">
-        <x:v>111</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:1">
       <x:c r="A177" s="5" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:1">
       <x:c r="A178" s="5" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:1">
       <x:c r="A179" s="5" t="s">
-        <x:v>586</x:v>
+        <x:v>587</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:2" s="2" customFormat="1">
       <x:c r="A180" s="5" t="s">
-        <x:v>577</x:v>
+        <x:v>578</x:v>
       </x:c>
       <x:c r="B180" s="6"/>
     </x:row>
@@ -4604,63 +4628,63 @@
     </x:row>
     <x:row r="182" spans="1:1">
       <x:c r="A182" s="5" t="s">
-        <x:v>456</x:v>
+        <x:v>457</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:1">
       <x:c r="A183" s="5" t="s">
-        <x:v>350</x:v>
+        <x:v>351</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:1">
       <x:c r="A184" s="5" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:2" s="2" customFormat="1">
       <x:c r="A185" s="5" t="s">
-        <x:v>338</x:v>
+        <x:v>339</x:v>
       </x:c>
       <x:c r="B185" s="6"/>
     </x:row>
     <x:row r="186" spans="1:1">
       <x:c r="A186" s="5" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:1">
       <x:c r="A187" s="5" t="s">
-        <x:v>655</x:v>
+        <x:v>656</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:1">
       <x:c r="A188" s="5" t="s">
-        <x:v>353</x:v>
+        <x:v>354</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:1">
       <x:c r="A189" s="5" t="s">
-        <x:v>743</x:v>
+        <x:v>744</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:1">
       <x:c r="A190" s="5" t="s">
-        <x:v>360</x:v>
+        <x:v>361</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:1">
       <x:c r="A191" s="5" t="s">
-        <x:v>389</x:v>
+        <x:v>390</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:1">
       <x:c r="A192" s="5" t="s">
-        <x:v>607</x:v>
+        <x:v>608</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:1">
       <x:c r="A193" s="5" t="s">
-        <x:v>744</x:v>
+        <x:v>745</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:1">
@@ -4670,35 +4694,35 @@
     </x:row>
     <x:row r="195" spans="1:1">
       <x:c r="A195" s="5" t="s">
-        <x:v>582</x:v>
+        <x:v>583</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:1">
       <x:c r="A196" s="5" t="s">
-        <x:v>811</x:v>
+        <x:v>812</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:1">
       <x:c r="A197" s="5" t="s">
-        <x:v>186</x:v>
+        <x:v>187</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:1">
       <x:c r="A198" s="5" t="s">
-        <x:v>721</x:v>
+        <x:v>722</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:2">
       <x:c r="A199" s="5" t="s">
-        <x:v>619</x:v>
+        <x:v>620</x:v>
       </x:c>
       <x:c r="B199" s="6" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:1">
       <x:c r="A200" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:1">
@@ -4713,134 +4737,134 @@
     </x:row>
     <x:row r="203" spans="1:2" s="2" customFormat="1">
       <x:c r="A203" s="5" t="s">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B203" s="6"/>
     </x:row>
     <x:row r="204" spans="1:1">
       <x:c r="A204" s="5" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:1">
       <x:c r="A205" s="5" t="s">
-        <x:v>451</x:v>
+        <x:v>452</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:1">
       <x:c r="A206" s="5" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:1">
       <x:c r="A207" s="5" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:2" s="2" customFormat="1">
       <x:c r="A208" s="5" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="B208" s="6"/>
     </x:row>
     <x:row r="209" spans="1:1">
       <x:c r="A209" s="5" t="s">
-        <x:v>679</x:v>
+        <x:v>680</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:1">
       <x:c r="A210" s="5" t="s">
-        <x:v>815</x:v>
+        <x:v>816</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:1">
       <x:c r="A211" s="5" t="s">
-        <x:v>393</x:v>
+        <x:v>394</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:1">
       <x:c r="A212" s="5" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:1">
       <x:c r="A213" s="5" t="s">
-        <x:v>372</x:v>
+        <x:v>373</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:1">
       <x:c r="A214" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:1">
       <x:c r="A215" s="5" t="s">
-        <x:v>594</x:v>
+        <x:v>595</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:1">
       <x:c r="A216" s="5" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:1">
       <x:c r="A217" s="5" t="s">
-        <x:v>516</x:v>
+        <x:v>517</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:1">
       <x:c r="A218" s="5" t="s">
-        <x:v>502</x:v>
+        <x:v>503</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:1">
       <x:c r="A219" s="5" t="s">
-        <x:v>422</x:v>
+        <x:v>423</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:1">
       <x:c r="A220" s="5" t="s">
-        <x:v>722</x:v>
+        <x:v>723</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:1">
       <x:c r="A221" s="5" t="s">
-        <x:v>630</x:v>
+        <x:v>631</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:1">
       <x:c r="A222" s="5" t="s">
-        <x:v>385</x:v>
+        <x:v>386</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:1">
       <x:c r="A223" s="5" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:1">
       <x:c r="A224" s="5" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:1">
       <x:c r="A225" s="5" t="s">
-        <x:v>401</x:v>
+        <x:v>402</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:1">
       <x:c r="A226" s="5" t="s">
-        <x:v>359</x:v>
+        <x:v>360</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:1">
       <x:c r="A227" s="5" t="s">
-        <x:v>603</x:v>
+        <x:v>604</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:1">
       <x:c r="A228" s="5" t="s">
-        <x:v>751</x:v>
+        <x:v>752</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:1">
@@ -4850,32 +4874,32 @@
     </x:row>
     <x:row r="230" spans="1:1">
       <x:c r="A230" s="5" t="s">
-        <x:v>525</x:v>
+        <x:v>526</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:1">
       <x:c r="A231" s="5" t="s">
-        <x:v>570</x:v>
+        <x:v>571</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:1">
       <x:c r="A232" s="5" t="s">
-        <x:v>411</x:v>
+        <x:v>412</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:1">
       <x:c r="A233" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:1">
       <x:c r="A234" s="5" t="s">
-        <x:v>712</x:v>
+        <x:v>713</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:1">
       <x:c r="A235" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:1">
@@ -4885,354 +4909,354 @@
     </x:row>
     <x:row r="237" spans="1:1">
       <x:c r="A237" s="5" t="s">
-        <x:v>420</x:v>
+        <x:v>421</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:1">
       <x:c r="A238" s="5" t="s">
-        <x:v>336</x:v>
+        <x:v>337</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:1">
       <x:c r="A239" s="5" t="s">
-        <x:v>439</x:v>
+        <x:v>440</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:1">
       <x:c r="A240" s="5" t="s">
-        <x:v>503</x:v>
+        <x:v>504</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:1">
       <x:c r="A241" s="5" t="s">
-        <x:v>418</x:v>
+        <x:v>419</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:1">
       <x:c r="A242" s="5" t="s">
-        <x:v>746</x:v>
+        <x:v>747</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:1">
       <x:c r="A243" s="5" t="s">
-        <x:v>566</x:v>
+        <x:v>567</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:1">
       <x:c r="A244" s="5" t="s">
-        <x:v>442</x:v>
+        <x:v>443</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:1">
       <x:c r="A245" s="5" t="s">
-        <x:v>707</x:v>
+        <x:v>708</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:1">
       <x:c r="A246" s="5" t="s">
-        <x:v>424</x:v>
+        <x:v>425</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:1">
       <x:c r="A247" s="5" t="s">
-        <x:v>366</x:v>
+        <x:v>367</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:1">
       <x:c r="A248" s="5" t="s">
-        <x:v>427</x:v>
+        <x:v>428</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:1">
       <x:c r="A249" s="5" t="s">
-        <x:v>386</x:v>
+        <x:v>387</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:1">
       <x:c r="A250" s="5" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:1">
       <x:c r="A251" s="5" t="s">
-        <x:v>370</x:v>
+        <x:v>371</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:1">
       <x:c r="A252" s="5" t="s">
-        <x:v>610</x:v>
+        <x:v>611</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:1">
       <x:c r="A253" s="5" t="s">
-        <x:v>711</x:v>
+        <x:v>712</x:v>
       </x:c>
     </x:row>
     <x:row r="254" spans="1:1">
       <x:c r="A254" s="5" t="s">
-        <x:v>583</x:v>
+        <x:v>584</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:1">
       <x:c r="A255" s="5" t="s">
-        <x:v>492</x:v>
+        <x:v>493</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:1">
       <x:c r="A256" s="5" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:1">
       <x:c r="A257" s="5" t="s">
-        <x:v>690</x:v>
+        <x:v>691</x:v>
       </x:c>
     </x:row>
     <x:row r="258" spans="1:1">
       <x:c r="A258" s="5" t="s">
-        <x:v>431</x:v>
+        <x:v>432</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:1">
       <x:c r="A259" s="5" t="s">
-        <x:v>664</x:v>
+        <x:v>665</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:1">
       <x:c r="A260" s="5" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="261" spans="1:2" s="2" customFormat="1">
       <x:c r="A261" s="5" t="s">
-        <x:v>527</x:v>
+        <x:v>528</x:v>
       </x:c>
       <x:c r="B261" s="6"/>
     </x:row>
     <x:row r="262" spans="1:1">
       <x:c r="A262" s="5" t="s">
-        <x:v>391</x:v>
+        <x:v>392</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:1">
       <x:c r="A263" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="264" spans="1:1">
       <x:c r="A264" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:1">
       <x:c r="A265" s="5" t="s">
-        <x:v>696</x:v>
+        <x:v>697</x:v>
       </x:c>
     </x:row>
     <x:row r="266" spans="1:1">
       <x:c r="A266" s="5" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="267" spans="1:1">
       <x:c r="A267" s="5" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="268" spans="1:1">
       <x:c r="A268" s="5" t="s">
-        <x:v>813</x:v>
+        <x:v>814</x:v>
       </x:c>
     </x:row>
     <x:row r="269" spans="1:1">
       <x:c r="A269" s="5" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="270" spans="1:1">
       <x:c r="A270" s="5" t="s">
-        <x:v>367</x:v>
+        <x:v>368</x:v>
       </x:c>
     </x:row>
     <x:row r="271" spans="1:1">
       <x:c r="A271" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="272" spans="1:1">
       <x:c r="A272" s="5" t="s">
-        <x:v>564</x:v>
+        <x:v>565</x:v>
       </x:c>
     </x:row>
     <x:row r="273" spans="1:1">
       <x:c r="A273" s="5" t="s">
-        <x:v>415</x:v>
+        <x:v>416</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:1">
       <x:c r="A274" s="5" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="275" spans="1:1">
       <x:c r="A275" s="5" t="s">
-        <x:v>773</x:v>
+        <x:v>774</x:v>
       </x:c>
     </x:row>
     <x:row r="276" spans="1:1">
       <x:c r="A276" s="5" t="s">
-        <x:v>758</x:v>
+        <x:v>759</x:v>
       </x:c>
     </x:row>
     <x:row r="277" spans="1:1">
       <x:c r="A277" s="5" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="278" spans="1:1">
       <x:c r="A278" s="5" t="s">
-        <x:v>108</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="279" spans="1:1">
       <x:c r="A279" s="5" t="s">
-        <x:v>414</x:v>
+        <x:v>415</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:1">
       <x:c r="A280" s="5" t="s">
-        <x:v>720</x:v>
+        <x:v>721</x:v>
       </x:c>
     </x:row>
     <x:row r="281" spans="1:1">
       <x:c r="A281" s="5" t="s">
-        <x:v>195</x:v>
+        <x:v>196</x:v>
       </x:c>
     </x:row>
     <x:row r="282" spans="1:1">
       <x:c r="A282" s="5" t="s">
-        <x:v>474</x:v>
+        <x:v>475</x:v>
       </x:c>
     </x:row>
     <x:row r="283" spans="1:1">
       <x:c r="A283" s="5" t="s">
-        <x:v>337</x:v>
+        <x:v>338</x:v>
       </x:c>
     </x:row>
     <x:row r="284" spans="1:1">
       <x:c r="A284" s="5" t="s">
-        <x:v>178</x:v>
+        <x:v>179</x:v>
       </x:c>
     </x:row>
     <x:row r="285" spans="1:1">
       <x:c r="A285" s="5" t="s">
-        <x:v>578</x:v>
+        <x:v>579</x:v>
       </x:c>
     </x:row>
     <x:row r="286" spans="1:1">
       <x:c r="A286" s="5" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
     </x:row>
     <x:row r="287" spans="1:1">
       <x:c r="A287" s="5" t="s">
-        <x:v>352</x:v>
+        <x:v>353</x:v>
       </x:c>
     </x:row>
     <x:row r="288" spans="1:1">
       <x:c r="A288" s="5" t="s">
-        <x:v>207</x:v>
+        <x:v>208</x:v>
       </x:c>
     </x:row>
     <x:row r="289" spans="1:1">
       <x:c r="A289" s="5" t="s">
-        <x:v>810</x:v>
+        <x:v>811</x:v>
       </x:c>
     </x:row>
     <x:row r="290" spans="1:1">
       <x:c r="A290" s="5" t="s">
-        <x:v>368</x:v>
+        <x:v>369</x:v>
       </x:c>
     </x:row>
     <x:row r="291" spans="1:2" s="2" customFormat="1">
       <x:c r="A291" s="5" t="s">
-        <x:v>600</x:v>
+        <x:v>601</x:v>
       </x:c>
       <x:c r="B291" s="6"/>
     </x:row>
     <x:row r="292" spans="1:1">
       <x:c r="A292" s="5" t="s">
-        <x:v>590</x:v>
+        <x:v>591</x:v>
       </x:c>
     </x:row>
     <x:row r="293" spans="1:1">
       <x:c r="A293" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="294" spans="1:1">
       <x:c r="A294" s="5" t="s">
-        <x:v>351</x:v>
+        <x:v>352</x:v>
       </x:c>
     </x:row>
     <x:row r="295" spans="1:1">
       <x:c r="A295" s="5" t="s">
-        <x:v>335</x:v>
+        <x:v>336</x:v>
       </x:c>
     </x:row>
     <x:row r="296" spans="1:1">
       <x:c r="A296" s="5" t="s">
-        <x:v>205</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="297" spans="1:1">
       <x:c r="A297" s="5" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="298" spans="1:1">
       <x:c r="A298" s="5" t="s">
-        <x:v>557</x:v>
+        <x:v>558</x:v>
       </x:c>
     </x:row>
     <x:row r="299" spans="1:1">
       <x:c r="A299" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="300" spans="1:1">
       <x:c r="A300" s="5" t="s">
-        <x:v>536</x:v>
+        <x:v>537</x:v>
       </x:c>
     </x:row>
     <x:row r="301" spans="1:1">
       <x:c r="A301" s="5" t="s">
-        <x:v>181</x:v>
+        <x:v>182</x:v>
       </x:c>
     </x:row>
     <x:row r="302" spans="1:1">
       <x:c r="A302" s="5" t="s">
-        <x:v>749</x:v>
+        <x:v>750</x:v>
       </x:c>
     </x:row>
     <x:row r="303" spans="1:1">
       <x:c r="A303" s="5" t="s">
-        <x:v>668</x:v>
+        <x:v>669</x:v>
       </x:c>
     </x:row>
     <x:row r="304" spans="1:1">
       <x:c r="A304" s="5" t="s">
-        <x:v>680</x:v>
+        <x:v>681</x:v>
       </x:c>
     </x:row>
     <x:row r="305" spans="1:1">
       <x:c r="A305" s="5" t="s">
-        <x:v>661</x:v>
+        <x:v>662</x:v>
       </x:c>
     </x:row>
     <x:row r="306" spans="1:2">
       <x:c r="A306" s="5" t="s">
-        <x:v>684</x:v>
+        <x:v>685</x:v>
       </x:c>
       <x:c r="B306" s="6" t="s">
         <x:v>294</x:v>
@@ -5240,459 +5264,459 @@
     </x:row>
     <x:row r="307" spans="1:1">
       <x:c r="A307" s="5" t="s">
-        <x:v>683</x:v>
+        <x:v>684</x:v>
       </x:c>
     </x:row>
     <x:row r="308" spans="1:1">
       <x:c r="A308" s="5" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="309" spans="1:1">
       <x:c r="A309" s="5" t="s">
-        <x:v>429</x:v>
+        <x:v>430</x:v>
       </x:c>
     </x:row>
     <x:row r="310" spans="1:1">
       <x:c r="A310" s="5" t="s">
-        <x:v>547</x:v>
+        <x:v>548</x:v>
       </x:c>
     </x:row>
     <x:row r="311" spans="1:1">
       <x:c r="A311" s="5" t="s">
-        <x:v>187</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="312" spans="1:1">
       <x:c r="A312" s="5" t="s">
-        <x:v>617</x:v>
+        <x:v>618</x:v>
       </x:c>
     </x:row>
     <x:row r="313" spans="1:1">
       <x:c r="A313" s="5" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
     </x:row>
     <x:row r="314" spans="1:1">
       <x:c r="A314" s="5" t="s">
-        <x:v>394</x:v>
+        <x:v>395</x:v>
       </x:c>
     </x:row>
     <x:row r="315" spans="1:1">
       <x:c r="A315" s="5" t="s">
-        <x:v>399</x:v>
+        <x:v>400</x:v>
       </x:c>
     </x:row>
     <x:row r="316" spans="1:2" s="2" customFormat="1">
       <x:c r="A316" s="5" t="s">
-        <x:v>596</x:v>
+        <x:v>597</x:v>
       </x:c>
       <x:c r="B316" s="6"/>
     </x:row>
     <x:row r="317" spans="1:1">
       <x:c r="A317" s="5" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="318" spans="1:2" s="2" customFormat="1">
       <x:c r="A318" s="5" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B318" s="6"/>
     </x:row>
     <x:row r="319" spans="1:1">
       <x:c r="A319" s="5" t="s">
-        <x:v>799</x:v>
+        <x:v>800</x:v>
       </x:c>
     </x:row>
     <x:row r="320" spans="1:1">
       <x:c r="A320" s="5" t="s">
-        <x:v>796</x:v>
+        <x:v>797</x:v>
       </x:c>
     </x:row>
     <x:row r="321" spans="1:1">
       <x:c r="A321" s="5" t="s">
-        <x:v>461</x:v>
+        <x:v>462</x:v>
       </x:c>
     </x:row>
     <x:row r="322" spans="1:1">
       <x:c r="A322" s="5" t="s">
-        <x:v>224</x:v>
+        <x:v>225</x:v>
       </x:c>
     </x:row>
     <x:row r="323" spans="1:1">
       <x:c r="A323" s="5" t="s">
-        <x:v>762</x:v>
+        <x:v>763</x:v>
       </x:c>
     </x:row>
     <x:row r="324" spans="1:1">
       <x:c r="A324" s="5" t="s">
-        <x:v>797</x:v>
+        <x:v>798</x:v>
       </x:c>
     </x:row>
     <x:row r="325" spans="1:1">
       <x:c r="A325" s="5" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
     </x:row>
     <x:row r="326" spans="1:1">
       <x:c r="A326" s="5" t="s">
-        <x:v>209</x:v>
+        <x:v>210</x:v>
       </x:c>
     </x:row>
     <x:row r="327" spans="1:2" s="2" customFormat="1">
       <x:c r="A327" s="5" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B327" s="6"/>
     </x:row>
     <x:row r="328" spans="1:1">
       <x:c r="A328" s="5" t="s">
-        <x:v>348</x:v>
+        <x:v>349</x:v>
       </x:c>
     </x:row>
     <x:row r="329" spans="1:1">
       <x:c r="A329" s="5" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="330" spans="1:1">
       <x:c r="A330" s="5" t="s">
-        <x:v>763</x:v>
+        <x:v>764</x:v>
       </x:c>
     </x:row>
     <x:row r="331" spans="1:1">
       <x:c r="A331" s="5" t="s">
-        <x:v>757</x:v>
+        <x:v>758</x:v>
       </x:c>
     </x:row>
     <x:row r="332" spans="1:1">
       <x:c r="A332" s="5" t="s">
-        <x:v>229</x:v>
+        <x:v>230</x:v>
       </x:c>
     </x:row>
     <x:row r="333" spans="1:1">
       <x:c r="A333" s="5" t="s">
-        <x:v>227</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="334" spans="1:1">
       <x:c r="A334" s="5" t="s">
-        <x:v>783</x:v>
+        <x:v>784</x:v>
       </x:c>
     </x:row>
     <x:row r="335" spans="1:1">
       <x:c r="A335" s="5" t="s">
-        <x:v>734</x:v>
+        <x:v>735</x:v>
       </x:c>
     </x:row>
     <x:row r="336" spans="1:1">
       <x:c r="A336" s="5" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="337" spans="1:1">
       <x:c r="A337" s="5" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="338" spans="1:1">
       <x:c r="A338" s="5" t="s">
-        <x:v>362</x:v>
+        <x:v>363</x:v>
       </x:c>
     </x:row>
     <x:row r="339" spans="1:1">
       <x:c r="A339" s="5" t="s">
-        <x:v>750</x:v>
+        <x:v>751</x:v>
       </x:c>
     </x:row>
     <x:row r="340" spans="1:1">
       <x:c r="A340" s="5" t="s">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
     </x:row>
     <x:row r="341" spans="1:1">
       <x:c r="A341" s="5" t="s">
-        <x:v>398</x:v>
+        <x:v>399</x:v>
       </x:c>
     </x:row>
     <x:row r="342" spans="1:1">
       <x:c r="A342" s="5" t="s">
-        <x:v>467</x:v>
+        <x:v>468</x:v>
       </x:c>
     </x:row>
     <x:row r="343" spans="1:1">
       <x:c r="A343" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="344" spans="1:1">
       <x:c r="A344" s="5" t="s">
-        <x:v>349</x:v>
+        <x:v>350</x:v>
       </x:c>
     </x:row>
     <x:row r="345" spans="1:1">
       <x:c r="A345" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="346" spans="1:1">
       <x:c r="A346" s="5" t="s">
-        <x:v>545</x:v>
+        <x:v>546</x:v>
       </x:c>
     </x:row>
     <x:row r="347" spans="1:1">
       <x:c r="A347" s="5" t="s">
-        <x:v>571</x:v>
+        <x:v>572</x:v>
       </x:c>
     </x:row>
     <x:row r="348" spans="1:1">
       <x:c r="A348" s="5" t="s">
-        <x:v>753</x:v>
+        <x:v>754</x:v>
       </x:c>
     </x:row>
     <x:row r="349" spans="1:1">
       <x:c r="A349" s="5" t="s">
-        <x:v>471</x:v>
+        <x:v>472</x:v>
       </x:c>
     </x:row>
     <x:row r="350" spans="1:1">
       <x:c r="A350" s="5" t="s">
-        <x:v>591</x:v>
+        <x:v>592</x:v>
       </x:c>
     </x:row>
     <x:row r="351" spans="1:1">
       <x:c r="A351" s="5" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="352" spans="1:1">
       <x:c r="A352" s="5" t="s">
-        <x:v>213</x:v>
+        <x:v>214</x:v>
       </x:c>
     </x:row>
     <x:row r="353" spans="1:1">
       <x:c r="A353" s="5" t="s">
-        <x:v>211</x:v>
+        <x:v>212</x:v>
       </x:c>
     </x:row>
     <x:row r="354" spans="1:1">
       <x:c r="A354" s="5" t="s">
-        <x:v>756</x:v>
+        <x:v>757</x:v>
       </x:c>
     </x:row>
     <x:row r="355" spans="1:1">
       <x:c r="A355" s="5" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="356" spans="1:1">
       <x:c r="A356" s="5" t="s">
-        <x:v>801</x:v>
+        <x:v>802</x:v>
       </x:c>
     </x:row>
     <x:row r="357" spans="1:1">
       <x:c r="A357" s="5" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="358" spans="1:1">
       <x:c r="A358" s="5" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="359" spans="1:1">
       <x:c r="A359" s="5" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="360" spans="1:1">
       <x:c r="A360" s="5" t="s">
-        <x:v>105</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="361" spans="1:2" s="2" customFormat="1">
       <x:c r="A361" s="5" t="s">
-        <x:v>489</x:v>
+        <x:v>490</x:v>
       </x:c>
       <x:c r="B361" s="6"/>
     </x:row>
     <x:row r="362" spans="1:1">
       <x:c r="A362" s="5" t="s">
-        <x:v>511</x:v>
+        <x:v>512</x:v>
       </x:c>
     </x:row>
     <x:row r="363" spans="1:1">
       <x:c r="A363" s="5" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
     </x:row>
     <x:row r="364" spans="1:1">
       <x:c r="A364" s="5" t="s">
-        <x:v>518</x:v>
+        <x:v>519</x:v>
       </x:c>
     </x:row>
     <x:row r="365" spans="1:1">
       <x:c r="A365" s="5" t="s">
-        <x:v>179</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="366" spans="1:1">
       <x:c r="A366" s="5" t="s">
-        <x:v>355</x:v>
+        <x:v>356</x:v>
       </x:c>
     </x:row>
     <x:row r="367" spans="1:1">
       <x:c r="A367" s="5" t="s">
-        <x:v>400</x:v>
+        <x:v>401</x:v>
       </x:c>
     </x:row>
     <x:row r="368" spans="1:1">
       <x:c r="A368" s="5" t="s">
-        <x:v>515</x:v>
+        <x:v>516</x:v>
       </x:c>
     </x:row>
     <x:row r="369" spans="1:1">
       <x:c r="A369" s="5" t="s">
-        <x:v>214</x:v>
+        <x:v>215</x:v>
       </x:c>
     </x:row>
     <x:row r="370" spans="1:1">
       <x:c r="A370" s="5" t="s">
-        <x:v>807</x:v>
+        <x:v>808</x:v>
       </x:c>
     </x:row>
     <x:row r="371" spans="1:2">
       <x:c r="A371" s="5" t="s">
-        <x:v>658</x:v>
+        <x:v>659</x:v>
       </x:c>
       <x:c r="B371" s="6" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="372" spans="1:1">
       <x:c r="A372" s="5" t="s">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
     </x:row>
     <x:row r="373" spans="1:1">
       <x:c r="A373" s="5" t="s">
-        <x:v>530</x:v>
+        <x:v>531</x:v>
       </x:c>
     </x:row>
     <x:row r="374" spans="1:1">
       <x:c r="A374" s="5" t="s">
-        <x:v>692</x:v>
+        <x:v>693</x:v>
       </x:c>
     </x:row>
     <x:row r="375" spans="1:1">
       <x:c r="A375" s="5" t="s">
-        <x:v>396</x:v>
+        <x:v>397</x:v>
       </x:c>
     </x:row>
     <x:row r="376" spans="1:1">
       <x:c r="A376" s="5" t="s">
-        <x:v>604</x:v>
+        <x:v>605</x:v>
       </x:c>
     </x:row>
     <x:row r="377" spans="1:1">
       <x:c r="A377" s="5" t="s">
-        <x:v>219</x:v>
+        <x:v>220</x:v>
       </x:c>
     </x:row>
     <x:row r="378" spans="1:1">
       <x:c r="A378" s="5" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
     </x:row>
     <x:row r="379" spans="1:1">
       <x:c r="A379" s="5" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="380" spans="1:1">
       <x:c r="A380" s="5" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="381" spans="1:1">
       <x:c r="A381" s="5" t="s">
-        <x:v>786</x:v>
+        <x:v>787</x:v>
       </x:c>
     </x:row>
     <x:row r="382" spans="1:1">
       <x:c r="A382" s="5" t="s">
-        <x:v>423</x:v>
+        <x:v>424</x:v>
       </x:c>
     </x:row>
     <x:row r="383" spans="1:1">
       <x:c r="A383" s="5" t="s">
-        <x:v>513</x:v>
+        <x:v>514</x:v>
       </x:c>
     </x:row>
     <x:row r="384" spans="1:1">
       <x:c r="A384" s="5" t="s">
-        <x:v>657</x:v>
+        <x:v>658</x:v>
       </x:c>
     </x:row>
     <x:row r="385" spans="1:1">
       <x:c r="A385" s="5" t="s">
-        <x:v>710</x:v>
+        <x:v>711</x:v>
       </x:c>
     </x:row>
     <x:row r="386" spans="1:1">
       <x:c r="A386" s="5" t="s">
-        <x:v>719</x:v>
+        <x:v>720</x:v>
       </x:c>
     </x:row>
     <x:row r="387" spans="1:1">
       <x:c r="A387" s="5" t="s">
-        <x:v>556</x:v>
+        <x:v>557</x:v>
       </x:c>
     </x:row>
     <x:row r="388" spans="1:1">
       <x:c r="A388" s="5" t="s">
-        <x:v>704</x:v>
+        <x:v>705</x:v>
       </x:c>
     </x:row>
     <x:row r="389" spans="1:1">
       <x:c r="A389" s="5" t="s">
-        <x:v>674</x:v>
+        <x:v>675</x:v>
       </x:c>
     </x:row>
     <x:row r="390" spans="1:1">
       <x:c r="A390" s="5" t="s">
-        <x:v>677</x:v>
+        <x:v>678</x:v>
       </x:c>
     </x:row>
     <x:row r="391" spans="1:1">
       <x:c r="A391" s="5" t="s">
-        <x:v>490</x:v>
+        <x:v>491</x:v>
       </x:c>
     </x:row>
     <x:row r="392" spans="1:1">
       <x:c r="A392" s="5" t="s">
-        <x:v>563</x:v>
+        <x:v>564</x:v>
       </x:c>
     </x:row>
     <x:row r="393" spans="1:1">
       <x:c r="A393" s="5" t="s">
-        <x:v>718</x:v>
+        <x:v>719</x:v>
       </x:c>
     </x:row>
     <x:row r="394" spans="1:1">
       <x:c r="A394" s="5" t="s">
-        <x:v>218</x:v>
+        <x:v>219</x:v>
       </x:c>
     </x:row>
     <x:row r="395" spans="1:1">
       <x:c r="A395" s="5" t="s">
-        <x:v>341</x:v>
+        <x:v>342</x:v>
       </x:c>
     </x:row>
     <x:row r="396" spans="1:1">
       <x:c r="A396" s="5" t="s">
-        <x:v>443</x:v>
+        <x:v>444</x:v>
       </x:c>
     </x:row>
     <x:row r="397" spans="1:1">
@@ -5945,25 +5969,25 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="4" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
         <x:v>94</x:v>
-      </x:c>
-      <x:c r="B1" s="3" t="s">
-        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:1">
       <x:c r="A2" s="5" t="s">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1">
       <x:c r="A3" s="5" t="s">
-        <x:v>650</x:v>
+        <x:v>651</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1">
       <x:c r="A4" s="5" t="s">
-        <x:v>358</x:v>
+        <x:v>359</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1">
@@ -5973,72 +5997,72 @@
     </x:row>
     <x:row r="6" spans="1:1">
       <x:c r="A6" s="5" t="s">
-        <x:v>741</x:v>
+        <x:v>742</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1">
       <x:c r="A7" s="5" t="s">
-        <x:v>640</x:v>
+        <x:v>641</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1">
       <x:c r="A8" s="5" t="s">
-        <x:v>713</x:v>
+        <x:v>714</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1">
       <x:c r="A9" s="5" t="s">
-        <x:v>189</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1">
       <x:c r="A10" s="5" t="s">
-        <x:v>767</x:v>
+        <x:v>768</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1">
       <x:c r="A11" s="5" t="s">
-        <x:v>580</x:v>
+        <x:v>581</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1">
       <x:c r="A12" s="5" t="s">
-        <x:v>416</x:v>
+        <x:v>417</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1">
       <x:c r="A13" s="5" t="s">
-        <x:v>682</x:v>
+        <x:v>683</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1">
       <x:c r="A14" s="5" t="s">
-        <x:v>703</x:v>
+        <x:v>704</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1">
       <x:c r="A15" s="5" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:1">
       <x:c r="A16" s="5" t="s">
-        <x:v>538</x:v>
+        <x:v>539</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1">
       <x:c r="A17" s="5" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:1">
       <x:c r="A18" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:1">
       <x:c r="A19" s="5" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:1">
@@ -6048,82 +6072,82 @@
     </x:row>
     <x:row r="21" spans="1:1">
       <x:c r="A21" s="5" t="s">
-        <x:v>609</x:v>
+        <x:v>610</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:1">
       <x:c r="A22" s="5" t="s">
-        <x:v>222</x:v>
+        <x:v>223</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:1">
       <x:c r="A23" s="5" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:1">
       <x:c r="A24" s="5" t="s">
-        <x:v>217</x:v>
+        <x:v>218</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:1">
       <x:c r="A25" s="5" t="s">
-        <x:v>457</x:v>
+        <x:v>458</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:1">
       <x:c r="A26" s="5" t="s">
-        <x:v>625</x:v>
+        <x:v>626</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:1">
       <x:c r="A27" s="5" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:1">
       <x:c r="A28" s="5" t="s">
-        <x:v>642</x:v>
+        <x:v>643</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:1">
       <x:c r="A29" s="5" t="s">
-        <x:v>452</x:v>
+        <x:v>453</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:1">
       <x:c r="A30" s="5" t="s">
-        <x:v>638</x:v>
+        <x:v>639</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:1">
       <x:c r="A31" s="5" t="s">
-        <x:v>504</x:v>
+        <x:v>505</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:1">
       <x:c r="A32" s="5" t="s">
-        <x:v>390</x:v>
+        <x:v>391</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:1">
       <x:c r="A33" s="5" t="s">
-        <x:v>626</x:v>
+        <x:v>627</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:1">
       <x:c r="A34" s="5" t="s">
-        <x:v>691</x:v>
+        <x:v>692</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:1">
       <x:c r="A35" s="5" t="s">
-        <x:v>497</x:v>
+        <x:v>498</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:1">
       <x:c r="A36" s="5" t="s">
-        <x:v>509</x:v>
+        <x:v>510</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:1">
@@ -6133,7 +6157,7 @@
     </x:row>
     <x:row r="38" spans="1:1">
       <x:c r="A38" s="5" t="s">
-        <x:v>620</x:v>
+        <x:v>621</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:1">
@@ -6143,22 +6167,22 @@
     </x:row>
     <x:row r="40" spans="1:1">
       <x:c r="A40" s="5" t="s">
-        <x:v>745</x:v>
+        <x:v>746</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:1">
       <x:c r="A41" s="5" t="s">
-        <x:v>666</x:v>
+        <x:v>667</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:1">
       <x:c r="A42" s="5" t="s">
-        <x:v>188</x:v>
+        <x:v>189</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:1">
       <x:c r="A43" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:1">
@@ -6168,127 +6192,127 @@
     </x:row>
     <x:row r="45" spans="1:1">
       <x:c r="A45" s="5" t="s">
-        <x:v>613</x:v>
+        <x:v>614</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:1">
       <x:c r="A46" s="5" t="s">
-        <x:v>635</x:v>
+        <x:v>636</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:1">
       <x:c r="A47" s="5" t="s">
-        <x:v>809</x:v>
+        <x:v>810</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:1">
       <x:c r="A48" s="5" t="s">
-        <x:v>356</x:v>
+        <x:v>357</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:1">
       <x:c r="A49" s="5" t="s">
-        <x:v>627</x:v>
+        <x:v>628</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:1">
       <x:c r="A50" s="5" t="s">
-        <x:v>628</x:v>
+        <x:v>629</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:1">
       <x:c r="A51" s="5" t="s">
-        <x:v>695</x:v>
+        <x:v>696</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:1">
       <x:c r="A52" s="5" t="s">
-        <x:v>637</x:v>
+        <x:v>638</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:1">
       <x:c r="A53" s="5" t="s">
-        <x:v>444</x:v>
+        <x:v>445</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:1">
       <x:c r="A54" s="5" t="s">
-        <x:v>560</x:v>
+        <x:v>561</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:1">
       <x:c r="A55" s="5" t="s">
-        <x:v>404</x:v>
+        <x:v>405</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:1">
       <x:c r="A56" s="5" t="s">
-        <x:v>700</x:v>
+        <x:v>701</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:1">
       <x:c r="A57" s="5" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:1">
       <x:c r="A58" s="5" t="s">
-        <x:v>689</x:v>
+        <x:v>690</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:1">
       <x:c r="A59" s="5" t="s">
-        <x:v>714</x:v>
+        <x:v>715</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:1">
       <x:c r="A60" s="5" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:1">
       <x:c r="A61" s="5" t="s">
-        <x:v>417</x:v>
+        <x:v>418</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:1">
       <x:c r="A62" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:1">
       <x:c r="A63" s="5" t="s">
-        <x:v>676</x:v>
+        <x:v>677</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:1">
       <x:c r="A64" s="5" t="s">
-        <x:v>552</x:v>
+        <x:v>553</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:1">
       <x:c r="A65" s="5" t="s">
-        <x:v>231</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:1">
       <x:c r="A66" s="5" t="s">
-        <x:v>598</x:v>
+        <x:v>599</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:1">
       <x:c r="A67" s="5" t="s">
-        <x:v>432</x:v>
+        <x:v>433</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:1">
       <x:c r="A68" s="5" t="s">
-        <x:v>569</x:v>
+        <x:v>570</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:1">
       <x:c r="A69" s="5" t="s">
-        <x:v>206</x:v>
+        <x:v>207</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:1">
@@ -6298,97 +6322,97 @@
     </x:row>
     <x:row r="71" spans="1:1">
       <x:c r="A71" s="5" t="s">
-        <x:v>633</x:v>
+        <x:v>634</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:1">
       <x:c r="A72" s="5" t="s">
-        <x:v>408</x:v>
+        <x:v>409</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:1">
       <x:c r="A73" s="5" t="s">
-        <x:v>662</x:v>
+        <x:v>663</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:1">
       <x:c r="A74" s="5" t="s">
-        <x:v>561</x:v>
+        <x:v>562</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:1">
       <x:c r="A75" s="5" t="s">
-        <x:v>697</x:v>
+        <x:v>698</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:1">
       <x:c r="A76" s="5" t="s">
-        <x:v>505</x:v>
+        <x:v>506</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:1">
       <x:c r="A77" s="5" t="s">
-        <x:v>354</x:v>
+        <x:v>355</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:1">
       <x:c r="A78" s="5" t="s">
-        <x:v>665</x:v>
+        <x:v>666</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:1">
       <x:c r="A79" s="5" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:1">
       <x:c r="A80" s="5" t="s">
-        <x:v>653</x:v>
+        <x:v>654</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:1">
       <x:c r="A81" s="5" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:1">
       <x:c r="A82" s="5" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:1">
       <x:c r="A83" s="5" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:1">
       <x:c r="A84" s="5" t="s">
-        <x:v>548</x:v>
+        <x:v>549</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:1">
       <x:c r="A85" s="5" t="s">
-        <x:v>723</x:v>
+        <x:v>724</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:1">
       <x:c r="A86" s="5" t="s">
-        <x:v>454</x:v>
+        <x:v>455</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:1">
       <x:c r="A87" s="5" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:1">
       <x:c r="A88" s="5" t="s">
-        <x:v>588</x:v>
+        <x:v>589</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:1">
       <x:c r="A89" s="5" t="s">
-        <x:v>405</x:v>
+        <x:v>406</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:1">
@@ -6398,87 +6422,87 @@
     </x:row>
     <x:row r="91" spans="1:1">
       <x:c r="A91" s="5" t="s">
-        <x:v>634</x:v>
+        <x:v>635</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:1">
       <x:c r="A92" s="5" t="s">
-        <x:v>727</x:v>
+        <x:v>728</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:1">
       <x:c r="A93" s="5" t="s">
-        <x:v>675</x:v>
+        <x:v>676</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:1">
       <x:c r="A94" s="5" t="s">
-        <x:v>430</x:v>
+        <x:v>431</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:1">
       <x:c r="A95" s="5" t="s">
-        <x:v>437</x:v>
+        <x:v>438</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:1">
       <x:c r="A96" s="5" t="s">
-        <x:v>648</x:v>
+        <x:v>649</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:1">
       <x:c r="A97" s="5" t="s">
-        <x:v>541</x:v>
+        <x:v>542</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:1">
       <x:c r="A98" s="5" t="s">
-        <x:v>726</x:v>
+        <x:v>727</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:1">
       <x:c r="A99" s="5" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:1">
       <x:c r="A100" s="5" t="s">
-        <x:v>531</x:v>
+        <x:v>532</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:1">
       <x:c r="A101" s="5" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:1">
       <x:c r="A102" s="5" t="s">
-        <x:v>550</x:v>
+        <x:v>551</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:1">
       <x:c r="A103" s="5" t="s">
-        <x:v>651</x:v>
+        <x:v>652</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:1">
       <x:c r="A104" s="5" t="s">
-        <x:v>184</x:v>
+        <x:v>185</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:1">
       <x:c r="A105" s="5" t="s">
-        <x:v>546</x:v>
+        <x:v>547</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:1">
       <x:c r="A106" s="5" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:1">
       <x:c r="A107" s="5" t="s">
-        <x:v>447</x:v>
+        <x:v>448</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:1">
@@ -6488,42 +6512,42 @@
     </x:row>
     <x:row r="109" spans="1:1">
       <x:c r="A109" s="5" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:1">
       <x:c r="A110" s="5" t="s">
-        <x:v>551</x:v>
+        <x:v>552</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:1">
       <x:c r="A111" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:1">
       <x:c r="A112" s="5" t="s">
-        <x:v>732</x:v>
+        <x:v>733</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:1">
       <x:c r="A113" s="5" t="s">
-        <x:v>524</x:v>
+        <x:v>525</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:1">
       <x:c r="A114" s="5" t="s">
-        <x:v>685</x:v>
+        <x:v>686</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:1">
       <x:c r="A115" s="5" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:1">
       <x:c r="A116" s="5" t="s">
-        <x:v>694</x:v>
+        <x:v>695</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:1">
@@ -6533,127 +6557,127 @@
     </x:row>
     <x:row r="118" spans="1:1">
       <x:c r="A118" s="5" t="s">
-        <x:v>612</x:v>
+        <x:v>613</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:1">
       <x:c r="A119" s="5" t="s">
-        <x:v>342</x:v>
+        <x:v>343</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:1">
       <x:c r="A120" s="5" t="s">
-        <x:v>615</x:v>
+        <x:v>616</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:1">
       <x:c r="A121" s="5" t="s">
-        <x:v>473</x:v>
+        <x:v>474</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:1">
       <x:c r="A122" s="5" t="s">
-        <x:v>448</x:v>
+        <x:v>449</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:1">
       <x:c r="A123" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:1">
       <x:c r="A124" s="5" t="s">
-        <x:v>584</x:v>
+        <x:v>585</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:1">
       <x:c r="A125" s="5" t="s">
-        <x:v>544</x:v>
+        <x:v>545</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:1">
       <x:c r="A126" s="5" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:1">
       <x:c r="A127" s="5" t="s">
-        <x:v>709</x:v>
+        <x:v>710</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:1">
       <x:c r="A128" s="5" t="s">
-        <x:v>514</x:v>
+        <x:v>515</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:1">
       <x:c r="A129" s="5" t="s">
-        <x:v>736</x:v>
+        <x:v>737</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:1">
       <x:c r="A130" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:1">
       <x:c r="A131" s="5" t="s">
-        <x:v>220</x:v>
+        <x:v>221</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:1">
       <x:c r="A132" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:1">
       <x:c r="A133" s="5" t="s">
-        <x:v>621</x:v>
+        <x:v>622</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:1">
       <x:c r="A134" s="5" t="s">
-        <x:v>803</x:v>
+        <x:v>804</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:1">
       <x:c r="A135" s="5" t="s">
-        <x:v>379</x:v>
+        <x:v>380</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:1">
       <x:c r="A136" s="5" t="s">
-        <x:v>343</x:v>
+        <x:v>344</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:1">
       <x:c r="A137" s="5" t="s">
-        <x:v>802</x:v>
+        <x:v>803</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:1">
       <x:c r="A138" s="5" t="s">
-        <x:v>755</x:v>
+        <x:v>756</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:1">
       <x:c r="A139" s="5" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:1">
       <x:c r="A140" s="5" t="s">
-        <x:v>775</x:v>
+        <x:v>776</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:1">
       <x:c r="A141" s="5" t="s">
-        <x:v>766</x:v>
+        <x:v>767</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:1">
       <x:c r="A142" s="5" t="s">
-        <x:v>760</x:v>
+        <x:v>761</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:1">
@@ -6663,7 +6687,7 @@
     </x:row>
     <x:row r="144" spans="1:1">
       <x:c r="A144" s="5" t="s">
-        <x:v>777</x:v>
+        <x:v>778</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:1">
@@ -6673,42 +6697,42 @@
     </x:row>
     <x:row r="146" spans="1:1">
       <x:c r="A146" s="5" t="s">
-        <x:v>507</x:v>
+        <x:v>508</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:1">
       <x:c r="A147" s="5" t="s">
-        <x:v>375</x:v>
+        <x:v>376</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:1">
       <x:c r="A148" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:1">
       <x:c r="A149" s="5" t="s">
-        <x:v>754</x:v>
+        <x:v>755</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:1">
       <x:c r="A150" s="5" t="s">
-        <x:v>616</x:v>
+        <x:v>617</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:1">
       <x:c r="A151" s="5" t="s">
-        <x:v>639</x:v>
+        <x:v>640</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:1">
       <x:c r="A152" s="5" t="s">
-        <x:v>715</x:v>
+        <x:v>716</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:1">
       <x:c r="A153" s="5" t="s">
-        <x:v>641</x:v>
+        <x:v>642</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:1">
@@ -6718,17 +6742,17 @@
     </x:row>
     <x:row r="155" spans="1:1">
       <x:c r="A155" s="5" t="s">
-        <x:v>510</x:v>
+        <x:v>511</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:1">
       <x:c r="A156" s="5" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:1">
       <x:c r="A157" s="5" t="s">
-        <x:v>770</x:v>
+        <x:v>771</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:1">
@@ -6738,7 +6762,7 @@
     </x:row>
     <x:row r="159" spans="1:1">
       <x:c r="A159" s="5" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:1">
@@ -6748,7 +6772,7 @@
     </x:row>
     <x:row r="161" spans="1:1">
       <x:c r="A161" s="5" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:1">
@@ -6758,32 +6782,32 @@
     </x:row>
     <x:row r="163" spans="1:1">
       <x:c r="A163" s="5" t="s">
-        <x:v>534</x:v>
+        <x:v>535</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:1">
       <x:c r="A164" s="5" t="s">
-        <x:v>528</x:v>
+        <x:v>529</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:1">
       <x:c r="A165" s="5" t="s">
-        <x:v>539</x:v>
+        <x:v>540</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:1">
       <x:c r="A166" s="5" t="s">
-        <x:v>406</x:v>
+        <x:v>407</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:1">
       <x:c r="A167" s="5" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:1">
       <x:c r="A168" s="5" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:1">
@@ -6793,192 +6817,192 @@
     </x:row>
     <x:row r="170" spans="1:1">
       <x:c r="A170" s="5" t="s">
-        <x:v>438</x:v>
+        <x:v>439</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:1">
       <x:c r="A171" s="5" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:1">
       <x:c r="A172" s="5" t="s">
-        <x:v>529</x:v>
+        <x:v>530</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:1">
       <x:c r="A173" s="5" t="s">
-        <x:v>434</x:v>
+        <x:v>435</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:1">
       <x:c r="A174" s="5" t="s">
-        <x:v>440</x:v>
+        <x:v>441</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:1">
       <x:c r="A175" s="5" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:1">
       <x:c r="A176" s="5" t="s">
-        <x:v>533</x:v>
+        <x:v>534</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:1">
       <x:c r="A177" s="5" t="s">
-        <x:v>506</x:v>
+        <x:v>507</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:1">
       <x:c r="A178" s="5" t="s">
-        <x:v>500</x:v>
+        <x:v>501</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:1">
       <x:c r="A179" s="5" t="s">
-        <x:v>558</x:v>
+        <x:v>559</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:1">
       <x:c r="A180" s="5" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:1">
       <x:c r="A181" s="5" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:1">
       <x:c r="A182" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:1">
       <x:c r="A183" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:1">
       <x:c r="A184" s="5" t="s">
-        <x:v>436</x:v>
+        <x:v>437</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:1">
       <x:c r="A185" s="5" t="s">
-        <x:v>419</x:v>
+        <x:v>420</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:1">
       <x:c r="A186" s="5" t="s">
-        <x:v>663</x:v>
+        <x:v>664</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:1">
       <x:c r="A187" s="5" t="s">
-        <x:v>472</x:v>
+        <x:v>473</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:1">
       <x:c r="A188" s="5" t="s">
-        <x:v>225</x:v>
+        <x:v>226</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:1">
       <x:c r="A189" s="5" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:1">
       <x:c r="A190" s="5" t="s">
-        <x:v>647</x:v>
+        <x:v>648</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:1">
       <x:c r="A191" s="5" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:1">
       <x:c r="A192" s="5" t="s">
-        <x:v>426</x:v>
+        <x:v>427</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:1">
       <x:c r="A193" s="5" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:1">
       <x:c r="A194" s="5" t="s">
-        <x:v>469</x:v>
+        <x:v>470</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:1">
       <x:c r="A195" s="5" t="s">
-        <x:v>765</x:v>
+        <x:v>766</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:1">
       <x:c r="A196" s="5" t="s">
-        <x:v>428</x:v>
+        <x:v>429</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:1">
       <x:c r="A197" s="5" t="s">
-        <x:v>772</x:v>
+        <x:v>773</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:1">
       <x:c r="A198" s="5" t="s">
-        <x:v>347</x:v>
+        <x:v>348</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:1">
       <x:c r="A199" s="5" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:1">
       <x:c r="A200" s="5" t="s">
-        <x:v>433</x:v>
+        <x:v>434</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:1">
       <x:c r="A201" s="5" t="s">
-        <x:v>672</x:v>
+        <x:v>673</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:1">
       <x:c r="A202" s="5" t="s">
-        <x:v>382</x:v>
+        <x:v>383</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:1">
       <x:c r="A203" s="5" t="s">
-        <x:v>559</x:v>
+        <x:v>560</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:1">
       <x:c r="A204" s="5" t="s">
-        <x:v>779</x:v>
+        <x:v>780</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:1">
       <x:c r="A205" s="5" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:1">
       <x:c r="A206" s="5" t="s">
-        <x:v>228</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:1">
       <x:c r="A207" s="5" t="s">
-        <x:v>669</x:v>
+        <x:v>670</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:1">
@@ -6988,57 +7012,57 @@
     </x:row>
     <x:row r="209" spans="1:1">
       <x:c r="A209" s="5" t="s">
-        <x:v>729</x:v>
+        <x:v>730</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:1">
       <x:c r="A210" s="5" t="s">
-        <x:v>730</x:v>
+        <x:v>731</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:1">
       <x:c r="A211" s="5" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:1">
       <x:c r="A212" s="5" t="s">
-        <x:v>716</x:v>
+        <x:v>717</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:1">
       <x:c r="A213" s="5" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:1">
       <x:c r="A214" s="5" t="s">
-        <x:v>521</x:v>
+        <x:v>522</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:1">
       <x:c r="A215" s="5" t="s">
-        <x:v>667</x:v>
+        <x:v>668</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:1">
       <x:c r="A216" s="5" t="s">
-        <x:v>410</x:v>
+        <x:v>411</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:1">
       <x:c r="A217" s="5" t="s">
-        <x:v>421</x:v>
+        <x:v>422</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:1">
       <x:c r="A218" s="5" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:1">
       <x:c r="A219" s="5" t="s">
-        <x:v>568</x:v>
+        <x:v>569</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:1">
@@ -7048,82 +7072,82 @@
     </x:row>
     <x:row r="221" spans="1:1">
       <x:c r="A221" s="5" t="s">
-        <x:v>435</x:v>
+        <x:v>436</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:1">
       <x:c r="A222" s="5" t="s">
-        <x:v>572</x:v>
+        <x:v>573</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:1">
       <x:c r="A223" s="5" t="s">
-        <x:v>562</x:v>
+        <x:v>563</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:1">
       <x:c r="A224" s="5" t="s">
-        <x:v>413</x:v>
+        <x:v>414</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:1">
       <x:c r="A225" s="5" t="s">
-        <x:v>537</x:v>
+        <x:v>538</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:1">
       <x:c r="A226" s="5" t="s">
-        <x:v>535</x:v>
+        <x:v>536</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:1">
       <x:c r="A227" s="5" t="s">
-        <x:v>565</x:v>
+        <x:v>566</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:1">
       <x:c r="A228" s="5" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:1">
       <x:c r="A229" s="5" t="s">
-        <x:v>446</x:v>
+        <x:v>447</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:1">
       <x:c r="A230" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:1">
       <x:c r="A231" s="5" t="s">
-        <x:v>808</x:v>
+        <x:v>809</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:1">
       <x:c r="A232" s="5" t="s">
-        <x:v>645</x:v>
+        <x:v>646</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:1">
       <x:c r="A233" s="5" t="s">
-        <x:v>223</x:v>
+        <x:v>224</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:1">
       <x:c r="A234" s="5" t="s">
-        <x:v>441</x:v>
+        <x:v>442</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:1">
       <x:c r="A235" s="5" t="s">
-        <x:v>764</x:v>
+        <x:v>765</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:1">
       <x:c r="A236" s="5" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:1">
@@ -7133,152 +7157,152 @@
     </x:row>
     <x:row r="238" spans="1:1">
       <x:c r="A238" s="5" t="s">
-        <x:v>542</x:v>
+        <x:v>543</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:1">
       <x:c r="A239" s="5" t="s">
-        <x:v>339</x:v>
+        <x:v>340</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:1">
       <x:c r="A240" s="5" t="s">
-        <x:v>782</x:v>
+        <x:v>783</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:1">
       <x:c r="A241" s="5" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:1">
       <x:c r="A242" s="5" t="s">
-        <x:v>553</x:v>
+        <x:v>554</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:1">
       <x:c r="A243" s="5" t="s">
-        <x:v>793</x:v>
+        <x:v>794</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:1">
       <x:c r="A244" s="5" t="s">
-        <x:v>543</x:v>
+        <x:v>544</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:1">
       <x:c r="A245" s="5" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:1">
       <x:c r="A246" s="5" t="s">
-        <x:v>804</x:v>
+        <x:v>805</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:1">
       <x:c r="A247" s="5" t="s">
-        <x:v>371</x:v>
+        <x:v>372</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:1">
       <x:c r="A248" s="5" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:1">
       <x:c r="A249" s="5" t="s">
-        <x:v>185</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:1">
       <x:c r="A250" s="5" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:1">
       <x:c r="A251" s="5" t="s">
-        <x:v>654</x:v>
+        <x:v>655</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:1">
       <x:c r="A252" s="5" t="s">
-        <x:v>387</x:v>
+        <x:v>388</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:1">
       <x:c r="A253" s="5" t="s">
-        <x:v>488</x:v>
+        <x:v>489</x:v>
       </x:c>
     </x:row>
     <x:row r="254" spans="1:1">
       <x:c r="A254" s="5" t="s">
-        <x:v>499</x:v>
+        <x:v>500</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:1">
       <x:c r="A255" s="5" t="s">
-        <x:v>494</x:v>
+        <x:v>495</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:1">
       <x:c r="A256" s="5" t="s">
-        <x:v>204</x:v>
+        <x:v>205</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:1">
       <x:c r="A257" s="5" t="s">
-        <x:v>673</x:v>
+        <x:v>674</x:v>
       </x:c>
     </x:row>
     <x:row r="258" spans="1:1">
       <x:c r="A258" s="5" t="s">
-        <x:v>798</x:v>
+        <x:v>799</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:1">
       <x:c r="A259" s="5" t="s">
-        <x:v>652</x:v>
+        <x:v>653</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:1">
       <x:c r="A260" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="261" spans="1:1">
       <x:c r="A261" s="5" t="s">
-        <x:v>671</x:v>
+        <x:v>672</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="1:1">
       <x:c r="A262" s="5" t="s">
-        <x:v>800</x:v>
+        <x:v>801</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:1">
       <x:c r="A263" s="5" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
     </x:row>
     <x:row r="264" spans="1:1">
       <x:c r="A264" s="5" t="s">
-        <x:v>748</x:v>
+        <x:v>749</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:1">
       <x:c r="A265" s="5" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
     </x:row>
     <x:row r="266" spans="1:1">
       <x:c r="A266" s="5" t="s">
-        <x:v>686</x:v>
+        <x:v>687</x:v>
       </x:c>
     </x:row>
     <x:row r="267" spans="1:1">
       <x:c r="A267" s="5" t="s">
-        <x:v>606</x:v>
+        <x:v>607</x:v>
       </x:c>
     </x:row>
     <x:row r="268" spans="1:1">
@@ -7288,97 +7312,97 @@
     </x:row>
     <x:row r="269" spans="1:1">
       <x:c r="A269" s="5" t="s">
-        <x:v>508</x:v>
+        <x:v>509</x:v>
       </x:c>
     </x:row>
     <x:row r="270" spans="1:1">
       <x:c r="A270" s="5" t="s">
-        <x:v>699</x:v>
+        <x:v>700</x:v>
       </x:c>
     </x:row>
     <x:row r="271" spans="1:1">
       <x:c r="A271" s="5" t="s">
-        <x:v>622</x:v>
+        <x:v>623</x:v>
       </x:c>
     </x:row>
     <x:row r="272" spans="1:1">
       <x:c r="A272" s="5" t="s">
-        <x:v>455</x:v>
+        <x:v>456</x:v>
       </x:c>
     </x:row>
     <x:row r="273" spans="1:1">
       <x:c r="A273" s="5" t="s">
-        <x:v>701</x:v>
+        <x:v>702</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:1">
       <x:c r="A274" s="5" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
     </x:row>
     <x:row r="275" spans="1:1">
       <x:c r="A275" s="5" t="s">
-        <x:v>486</x:v>
+        <x:v>487</x:v>
       </x:c>
     </x:row>
     <x:row r="276" spans="1:1">
       <x:c r="A276" s="5" t="s">
-        <x:v>363</x:v>
+        <x:v>364</x:v>
       </x:c>
     </x:row>
     <x:row r="277" spans="1:1">
       <x:c r="A277" s="5" t="s">
-        <x:v>334</x:v>
+        <x:v>335</x:v>
       </x:c>
     </x:row>
     <x:row r="278" spans="1:1">
       <x:c r="A278" s="5" t="s">
-        <x:v>215</x:v>
+        <x:v>216</x:v>
       </x:c>
     </x:row>
     <x:row r="279" spans="1:1">
       <x:c r="A279" s="5" t="s">
-        <x:v>365</x:v>
+        <x:v>366</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:1">
       <x:c r="A280" s="5" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="281" spans="1:1">
       <x:c r="A281" s="5" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="282" spans="1:1">
       <x:c r="A282" s="5" t="s">
-        <x:v>656</x:v>
+        <x:v>657</x:v>
       </x:c>
     </x:row>
     <x:row r="283" spans="1:1">
       <x:c r="A283" s="5" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
     </x:row>
     <x:row r="284" spans="1:1">
       <x:c r="A284" s="5" t="s">
-        <x:v>232</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="285" spans="1:1">
       <x:c r="A285" s="5" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="286" spans="1:1">
       <x:c r="A286" s="5" t="s">
-        <x:v>636</x:v>
+        <x:v>637</x:v>
       </x:c>
     </x:row>
     <x:row r="287" spans="1:1">
       <x:c r="A287" s="5" t="s">
-        <x:v>681</x:v>
+        <x:v>682</x:v>
       </x:c>
     </x:row>
     <x:row r="288" spans="1:1">
@@ -7388,72 +7412,72 @@
     </x:row>
     <x:row r="289" spans="1:1">
       <x:c r="A289" s="5" t="s">
-        <x:v>449</x:v>
+        <x:v>450</x:v>
       </x:c>
     </x:row>
     <x:row r="290" spans="1:1">
       <x:c r="A290" s="5" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
     <x:row r="291" spans="1:1">
       <x:c r="A291" s="5" t="s">
-        <x:v>412</x:v>
+        <x:v>413</x:v>
       </x:c>
     </x:row>
     <x:row r="292" spans="1:1">
       <x:c r="A292" s="5" t="s">
-        <x:v>182</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="293" spans="1:1">
       <x:c r="A293" s="5" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="294" spans="1:1">
       <x:c r="A294" s="5" t="s">
-        <x:v>678</x:v>
+        <x:v>679</x:v>
       </x:c>
     </x:row>
     <x:row r="295" spans="1:1">
       <x:c r="A295" s="5" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="296" spans="1:1">
       <x:c r="A296" s="5" t="s">
-        <x:v>409</x:v>
+        <x:v>410</x:v>
       </x:c>
     </x:row>
     <x:row r="297" spans="1:1">
       <x:c r="A297" s="5" t="s">
-        <x:v>554</x:v>
+        <x:v>555</x:v>
       </x:c>
     </x:row>
     <x:row r="298" spans="1:1">
       <x:c r="A298" s="5" t="s">
-        <x:v>649</x:v>
+        <x:v>650</x:v>
       </x:c>
     </x:row>
     <x:row r="299" spans="1:1">
       <x:c r="A299" s="5" t="s">
-        <x:v>595</x:v>
+        <x:v>596</x:v>
       </x:c>
     </x:row>
     <x:row r="300" spans="1:1">
       <x:c r="A300" s="5" t="s">
-        <x:v>592</x:v>
+        <x:v>593</x:v>
       </x:c>
     </x:row>
     <x:row r="301" spans="1:1">
       <x:c r="A301" s="5" t="s">
-        <x:v>113</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="302" spans="1:1">
       <x:c r="A302" s="5" t="s">
-        <x:v>670</x:v>
+        <x:v>671</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -7485,35 +7509,35 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="2" t="s">
-        <x:v>484</x:v>
+        <x:v>485</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
         <x:v>288</x:v>
       </x:c>
       <x:c r="C1" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:3">
       <x:c r="A2" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>190</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>574</x:v>
+        <x:v>575</x:v>
       </x:c>
       <x:c r="C3" s="2" t="s">
-        <x:v>226</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
@@ -7521,7 +7545,7 @@
         <x:v>296</x:v>
       </x:c>
       <x:c r="C4" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
